--- a/app/Licenciatura_em_Lingua_de_Sinais_de_Mocambique_Vertente_de_Interpretacao.xlsx
+++ b/app/Licenciatura_em_Lingua_de_Sinais_de_Mocambique_Vertente_de_Interpretacao.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Argentina Bila</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>Elisa Moiane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110304791989A</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t xml:space="preserve">Miquelina Jonas Bula </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500619887B</t>
   </si>
   <si>
@@ -326,9 +317,6 @@
     <t>Isabel Tomas Cumba</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110502922510M</t>
   </si>
   <si>
@@ -353,9 +341,6 @@
     <t>Celina Xitombe Nhamussua</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101683502M</t>
   </si>
   <si>
@@ -398,9 +383,6 @@
     <t>Felismia Carlos Jamine</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -449,9 +431,6 @@
     <t>Catarina Ernesto Mahungue</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>100300597119N</t>
   </si>
   <si>
@@ -494,9 +473,6 @@
     <t>Rosa Jumulate</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020100446108S</t>
   </si>
   <si>
@@ -540,9 +516,6 @@
   </si>
   <si>
     <t>Leia Mario Monjane</t>
-  </si>
-  <si>
-    <t>Cidade de Nampula</t>
   </si>
   <si>
     <t>030100596023F</t>
@@ -1811,7 +1784,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1827,7 +1800,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1843,7 +1816,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1859,7 +1832,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1875,7 +1848,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1890,9 +1863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1900,7 +1871,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1911,7 +1882,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1920,7 +1891,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1932,7 +1903,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1940,7 +1911,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2036,7 +2007,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2079,7 +2050,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2406,7 +2377,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2422,7 +2393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2438,7 +2409,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2454,7 +2425,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2470,7 +2441,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2485,9 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2495,7 +2464,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2506,7 +2475,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2515,7 +2484,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2527,7 +2496,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2535,7 +2504,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2631,7 +2600,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2674,7 +2643,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3001,7 +2970,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3017,7 +2986,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3033,7 +3002,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3049,7 +3018,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3065,7 +3034,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3080,9 +3049,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3090,7 +3057,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3101,7 +3068,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3110,7 +3077,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3122,7 +3089,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3130,7 +3097,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3226,7 +3193,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3269,7 +3236,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3596,7 +3563,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3612,7 +3579,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3628,7 +3595,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3644,7 +3611,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3660,7 +3627,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3675,9 +3642,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3685,7 +3650,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3696,7 +3661,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3705,7 +3670,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3717,7 +3682,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3725,7 +3690,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3821,7 +3786,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3864,7 +3829,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4191,7 +4156,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4207,7 +4172,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4223,7 +4188,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4239,7 +4204,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4255,7 +4220,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4270,9 +4235,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4280,7 +4243,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4291,7 +4254,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4300,7 +4263,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4312,7 +4275,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4320,7 +4283,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4416,7 +4379,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4459,7 +4422,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4786,7 +4749,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4802,7 +4765,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4818,7 +4781,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4834,7 +4797,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4850,7 +4813,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4865,9 +4828,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4875,7 +4836,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4886,7 +4847,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4895,7 +4856,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4907,7 +4868,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4915,7 +4876,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5011,7 +4972,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5054,7 +5015,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5381,7 +5342,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5397,7 +5358,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5413,7 +5374,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5429,7 +5390,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5445,7 +5406,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5460,9 +5421,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5470,7 +5429,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5481,7 +5440,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5490,7 +5449,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5502,7 +5461,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5510,7 +5469,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5606,7 +5565,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5649,7 +5608,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6111,9 +6070,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6121,7 +6078,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6132,7 +6089,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6141,7 +6098,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6153,7 +6110,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6161,7 +6118,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6257,7 +6214,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6300,7 +6257,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6627,7 +6584,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6643,7 +6600,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6659,7 +6616,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6675,7 +6632,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6691,7 +6648,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6706,9 +6663,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6716,7 +6671,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6727,7 +6682,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6736,7 +6691,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6748,7 +6703,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6756,7 +6711,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6852,7 +6807,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6895,7 +6850,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7222,7 +7177,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7238,7 +7193,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7254,7 +7209,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7270,7 +7225,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7286,7 +7241,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7301,9 +7256,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7311,7 +7264,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7322,7 +7275,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7331,7 +7284,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7343,7 +7296,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7351,7 +7304,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7447,7 +7400,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7490,7 +7443,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7817,7 +7770,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7833,7 +7786,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7849,7 +7802,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7865,7 +7818,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7881,7 +7834,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7896,9 +7849,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7906,7 +7857,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7917,7 +7868,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7926,7 +7877,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7938,7 +7889,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7946,7 +7897,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8042,7 +7993,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8085,7 +8036,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8412,7 +8363,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8428,7 +8379,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8444,7 +8395,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8460,7 +8411,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8476,7 +8427,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8491,9 +8442,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8501,7 +8450,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8512,7 +8461,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8521,7 +8470,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8533,7 +8482,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8637,7 +8586,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8680,7 +8629,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9007,7 +8956,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9023,7 +8972,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9039,7 +8988,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9055,7 +9004,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9071,7 +9020,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9086,9 +9035,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9096,7 +9043,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9107,7 +9054,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9116,7 +9063,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9128,7 +9075,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9136,7 +9083,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9232,7 +9179,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9275,7 +9222,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9602,7 +9549,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9618,7 +9565,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9634,7 +9581,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9650,7 +9597,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9666,7 +9613,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9681,9 +9628,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9691,7 +9636,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9702,7 +9647,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9711,7 +9656,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9723,7 +9668,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9731,7 +9676,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9827,7 +9772,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9870,7 +9815,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10197,7 +10142,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10213,7 +10158,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10229,7 +10174,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10245,7 +10190,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10261,7 +10206,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10276,9 +10221,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10286,7 +10229,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10297,7 +10240,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10306,7 +10249,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10318,7 +10261,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10422,7 +10365,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10465,7 +10408,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
